--- a/docs/assets/cursos/EM/LOM3005.xlsx
+++ b/docs/assets/cursos/EM/LOM3005.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -76,10 +76,16 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
+    <t>5009972 - Gilberto Carvalho Coelho</t>
+  </si>
+  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>5009972 - Gilberto Carvalho Coelho</t>
+    <t>A. Introdução; teoria básica de equilíbrio de fases;B. Sistemas unários;C. Sistemas binários;D. Sistemas ternários;E. Cálculo termodinâmico de diagramas de fases.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -88,7 +94,7 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>A. Introdução; teoria básica de equilíbrio de fases;B. Sistemas unários;C. Sistemas binários;D. Sistemas ternários;E. Cálculo termodinâmico de diagramas de fases.</t>
+    <t>1. Introdução; revisão da termodinâmica de soluções; teoria básica de equilíbrio de fases; curvas de energia livre versus composição; regra das fases; 2. Sistemas unários, equilíbrios bi-, mono- e invariantes; 3. Sistemas binários isomorfos; a regra da alavanca; solidificação em equilíbrio e fora de equilíbrio; mínimos e máximos; 4. Sistemas eutéticos binários; solidificação e microetruturas de ligas hipoeutéticas, eutéticas e hipereutéticas; solidificação unidirecional com eutéticos; casos limites de eutéticos; 5. Sistemas eutetóides binários; solidificação e microetruturas de ligas hipoeutetóides, eutetói-des e hipereutetóides; o sistema Fe-C; 6. Sistemas monotéticos; sistemas monotetóides; sistemas metatéticos; transformações congruentes; 7. Sistemas peritéticos binários; resfriamento em equilíbrio e fora do equilíbrio de ligas peritéticas; sistemas peritetóides binários; sistemas sintéticos binários; 8. Sistemas ternários isomorfos; o triângulo de Gibbs; seções isotérmicas; projeções liquidus; seções verticais; máximos e mínimos; resfriamento em equilíbrio; 9. Equilíbrio ternário de três fases; regra da alavanca em campos trifásicos; resfriamento em equilíbrio; 10. Equilíbrio ternário de quatro fases: equilíbrio de classe I; equilíbrio de classe II e equilíbrio de classe III; 11. Transformações congruentes em sistemas ternários; sistemas ternários complexos; 12. Cálculo termodinâmico de diagramas de fases.</t>
   </si>
   <si>
     <t>Syllabus:</t>
@@ -100,19 +106,19 @@
     <t>Método:</t>
   </si>
   <si>
-    <t>1. Introdução; revisão da termodinâmica de soluções; teoria básica de equilíbrio de fases; curvas de energia livre versus composição; regra das fases; 2. Sistemas unários, equilíbrios bi-, mono- e invariantes; 3. Sistemas binários isomorfos; a regra da alavanca; solidificação em equilíbrio e fora de equilíbrio; mínimos e máximos; 4. Sistemas eutéticos binários; solidificação e microetruturas de ligas hipoeutéticas, eutéticas e hipereutéticas; solidificação unidirecional com eutéticos; casos limites de eutéticos; 5. Sistemas eutetóides binários; solidificação e microetruturas de ligas hipoeutetóides, eutetói-des e hipereutetóides; o sistema Fe-C; 6. Sistemas monotéticos; sistemas monotetóides; sistemas metatéticos; transformações congruentes; 7. Sistemas peritéticos binários; resfriamento em equilíbrio e fora do equilíbrio de ligas peritéticas; sistemas peritetóides binários; sistemas sintéticos binários; 8. Sistemas ternários isomorfos; o triângulo de Gibbs; seções isotérmicas; projeções liquidus; seções verticais; máximos e mínimos; resfriamento em equilíbrio; 9. Equilíbrio ternário de três fases; regra da alavanca em campos trifásicos; resfriamento em equilíbrio; 10. Equilíbrio ternário de quatro fases: equilíbrio de classe I; equilíbrio de classe II e equilíbrio de classe III; 11. Transformações congruentes em sistemas ternários; sistemas ternários complexos; 12. Cálculo termodinâmico de diagramas de fases.</t>
+    <t>O curso será ministrado na forma de aulas expositivas e aulas práticas em laboratório envolvendo preparação de amostras e caracterização microestrutural. Os resultados das aulas práticas serão apresentados oralmente e sujeitos a avaliação (T).</t>
   </si>
   <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>O curso será ministrado na forma de aulas expositivas e aulas práticas em laboratório envolvendo preparação de amostras e caracterização microestrutural. Os resultados das aulas práticas serão apresentados oralmente e sujeitos a avaliação (T).</t>
+    <t>Serão aplicadas duas avaliações escritas (P1 e P2) que comporão a nota final (NF) juntamente com a avaliação do trabalho prático (T). O critério para a nota final é:NF=((P1*0,8)+(T*0,2)+P2*1)/2</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Serão aplicadas duas avaliações escritas (P1 e P2) que comporão a nota final (NF) juntamente com a avaliação do trabalho prático (T). O critério para a nota final é:NF=((P1*0,8)+(T*0,2)+P2*1)/2</t>
+    <t>Para os alunos que obtiverem 3,0≤NF&lt;5,0, será aplicada uma avaliação de recuperação (R) que levará ao cálculo da média final (MF) com o seguinte critério:MF=(NF+R)/2</t>
   </si>
   <si>
     <t>Bibliografia:</t>
@@ -481,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -601,98 +607,111 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="60" customHeight="1">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:3" ht="60" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="120" customHeight="1">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="120" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="60" customHeight="1">
+      <c r="C16" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="2" t="s">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="60" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B20" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="120" customHeight="1">
-      <c r="A20" s="1" t="s">
+    <row r="21" spans="1:3" ht="60" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1" t="s">
+    <row r="22" spans="1:3" ht="120" customHeight="1">
+      <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="30" customHeight="1">
       <c r="B22" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
